--- a/test_cases/test_case_economic_allocation.xlsx
+++ b/test_cases/test_case_economic_allocation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>access restricted</t>
   </si>
@@ -746,7 +746,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1111,9 @@
       <c r="K12">
         <v>11</v>
       </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" t="s">
         <v>85</v>
       </c>
